--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-F2rl3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-F2rl3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H2">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.073240333333333</v>
+        <v>5.991264999999999</v>
       </c>
       <c r="N2">
-        <v>9.219721</v>
+        <v>17.973795</v>
       </c>
       <c r="O2">
-        <v>0.71283010077264</v>
+        <v>0.7788164281790385</v>
       </c>
       <c r="P2">
-        <v>0.7128301007726399</v>
+        <v>0.7788164281790384</v>
       </c>
       <c r="Q2">
-        <v>2.071482816626222</v>
+        <v>4.520535259064999</v>
       </c>
       <c r="R2">
-        <v>18.643345349636</v>
+        <v>40.68481733158499</v>
       </c>
       <c r="S2">
-        <v>0.2180061979671613</v>
+        <v>0.2156078149872718</v>
       </c>
       <c r="T2">
-        <v>0.2180061979671613</v>
+        <v>0.2156078149872718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H3">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6918203333333334</v>
+        <v>0.6918203333333333</v>
       </c>
       <c r="N3">
         <v>2.075461</v>
       </c>
       <c r="O3">
-        <v>0.1604659266565316</v>
+        <v>0.08993109818181944</v>
       </c>
       <c r="P3">
-        <v>0.1604659266565316</v>
+        <v>0.08993109818181944</v>
       </c>
       <c r="Q3">
-        <v>0.4663136550528889</v>
+        <v>0.5219929697269999</v>
       </c>
       <c r="R3">
-        <v>4.196822895476</v>
+        <v>4.697936727543</v>
       </c>
       <c r="S3">
-        <v>0.04907560235706944</v>
+        <v>0.02489655697649262</v>
       </c>
       <c r="T3">
-        <v>0.04907560235706945</v>
+        <v>0.02489655697649262</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H4">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4283573333333333</v>
+        <v>0.7866516666666667</v>
       </c>
       <c r="N4">
-        <v>1.285072</v>
+        <v>2.359955</v>
       </c>
       <c r="O4">
-        <v>0.09935636916345929</v>
+        <v>0.102258411413019</v>
       </c>
       <c r="P4">
-        <v>0.09935636916345927</v>
+        <v>0.1022584114130189</v>
       </c>
       <c r="Q4">
-        <v>0.2887294058168889</v>
+        <v>0.5935452021850001</v>
       </c>
       <c r="R4">
-        <v>2.598564652352</v>
+        <v>5.341906819665001</v>
       </c>
       <c r="S4">
-        <v>0.03038634909169767</v>
+        <v>0.02830925472435215</v>
       </c>
       <c r="T4">
-        <v>0.03038634909169767</v>
+        <v>0.02830925472435215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H5">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I5">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J5">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1179043333333333</v>
+        <v>0.223045</v>
       </c>
       <c r="N5">
-        <v>0.353713</v>
+        <v>0.669135</v>
       </c>
       <c r="O5">
-        <v>0.02734760340736914</v>
+        <v>0.02899406222612314</v>
       </c>
       <c r="P5">
-        <v>0.02734760340736914</v>
+        <v>0.02899406222612314</v>
       </c>
       <c r="Q5">
-        <v>0.07947207963422222</v>
+        <v>0.168292136445</v>
       </c>
       <c r="R5">
-        <v>0.7152487167080001</v>
+        <v>1.514629228005</v>
       </c>
       <c r="S5">
-        <v>0.00836377004266816</v>
+        <v>0.008026726424859533</v>
       </c>
       <c r="T5">
-        <v>0.00836377004266816</v>
+        <v>0.008026726424859533</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H6">
         <v>2.919578</v>
       </c>
       <c r="I6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.073240333333333</v>
+        <v>5.991264999999999</v>
       </c>
       <c r="N6">
-        <v>9.219721</v>
+        <v>17.973795</v>
       </c>
       <c r="O6">
-        <v>0.71283010077264</v>
+        <v>0.7788164281790385</v>
       </c>
       <c r="P6">
-        <v>0.7128301007726399</v>
+        <v>0.7788164281790384</v>
       </c>
       <c r="Q6">
-        <v>2.990854955304223</v>
+        <v>5.830655162056666</v>
       </c>
       <c r="R6">
-        <v>26.917694597738</v>
+        <v>52.47589645851</v>
       </c>
       <c r="S6">
-        <v>0.3147624070273758</v>
+        <v>0.278094240480565</v>
       </c>
       <c r="T6">
-        <v>0.3147624070273757</v>
+        <v>0.2780942404805649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H7">
         <v>2.919578</v>
       </c>
       <c r="I7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6918203333333334</v>
+        <v>0.6918203333333333</v>
       </c>
       <c r="N7">
         <v>2.075461</v>
       </c>
       <c r="O7">
-        <v>0.1604659266565316</v>
+        <v>0.08993109818181944</v>
       </c>
       <c r="P7">
-        <v>0.1604659266565316</v>
+        <v>0.08993109818181944</v>
       </c>
       <c r="Q7">
-        <v>0.673274475050889</v>
+        <v>0.6732744750508889</v>
       </c>
       <c r="R7">
-        <v>6.059470275458001</v>
+        <v>6.059470275458</v>
       </c>
       <c r="S7">
-        <v>0.07085649338536865</v>
+        <v>0.03211195801677018</v>
       </c>
       <c r="T7">
-        <v>0.07085649338536866</v>
+        <v>0.03211195801677018</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H8">
         <v>2.919578</v>
       </c>
       <c r="I8">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J8">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4283573333333333</v>
+        <v>0.7866516666666667</v>
       </c>
       <c r="N8">
-        <v>1.285072</v>
+        <v>2.359955</v>
       </c>
       <c r="O8">
-        <v>0.09935636916345929</v>
+        <v>0.102258411413019</v>
       </c>
       <c r="P8">
-        <v>0.09935636916345927</v>
+        <v>0.1022584114130189</v>
       </c>
       <c r="Q8">
-        <v>0.4168742155128889</v>
+        <v>0.7655636332211112</v>
       </c>
       <c r="R8">
-        <v>3.751867939616</v>
+        <v>6.890072698990001</v>
       </c>
       <c r="S8">
-        <v>0.043872515873689</v>
+        <v>0.03651370749990816</v>
       </c>
       <c r="T8">
-        <v>0.043872515873689</v>
+        <v>0.03651370749990816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H9">
         <v>2.919578</v>
       </c>
       <c r="I9">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J9">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1179043333333333</v>
+        <v>0.223045</v>
       </c>
       <c r="N9">
-        <v>0.353713</v>
+        <v>0.669135</v>
       </c>
       <c r="O9">
-        <v>0.02734760340736914</v>
+        <v>0.02899406222612314</v>
       </c>
       <c r="P9">
-        <v>0.02734760340736914</v>
+        <v>0.02899406222612314</v>
       </c>
       <c r="Q9">
-        <v>0.1147436325682222</v>
+        <v>0.2170657583366667</v>
       </c>
       <c r="R9">
-        <v>1.032692693114</v>
+        <v>1.95359182503</v>
       </c>
       <c r="S9">
-        <v>0.01207580525233618</v>
+        <v>0.01035299387825236</v>
       </c>
       <c r="T9">
-        <v>0.01207580525233618</v>
+        <v>0.01035299387825236</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H10">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.073240333333333</v>
+        <v>5.991264999999999</v>
       </c>
       <c r="N10">
-        <v>9.219721</v>
+        <v>17.973795</v>
       </c>
       <c r="O10">
-        <v>0.71283010077264</v>
+        <v>0.7788164281790385</v>
       </c>
       <c r="P10">
-        <v>0.7128301007726399</v>
+        <v>0.7788164281790384</v>
       </c>
       <c r="Q10">
-        <v>1.561590244375</v>
+        <v>4.687811377865</v>
       </c>
       <c r="R10">
-        <v>14.054312199375</v>
+        <v>42.190302400785</v>
       </c>
       <c r="S10">
-        <v>0.1643442799652401</v>
+        <v>0.2235860822514628</v>
       </c>
       <c r="T10">
-        <v>0.1643442799652401</v>
+        <v>0.2235860822514628</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H11">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I11">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J11">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6918203333333334</v>
+        <v>0.6918203333333333</v>
       </c>
       <c r="N11">
         <v>2.075461</v>
       </c>
       <c r="O11">
-        <v>0.1604659266565316</v>
+        <v>0.08993109818181944</v>
       </c>
       <c r="P11">
-        <v>0.1604659266565316</v>
+        <v>0.08993109818181944</v>
       </c>
       <c r="Q11">
-        <v>0.3515312068750001</v>
+        <v>0.5413085934336667</v>
       </c>
       <c r="R11">
-        <v>3.163780861875</v>
+        <v>4.871777340903</v>
       </c>
       <c r="S11">
-        <v>0.03699571208726786</v>
+        <v>0.02581781943410966</v>
       </c>
       <c r="T11">
-        <v>0.03699571208726787</v>
+        <v>0.02581781943410967</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H12">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I12">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J12">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4283573333333333</v>
+        <v>0.7866516666666667</v>
       </c>
       <c r="N12">
-        <v>1.285072</v>
+        <v>2.359955</v>
       </c>
       <c r="O12">
-        <v>0.09935636916345929</v>
+        <v>0.102258411413019</v>
       </c>
       <c r="P12">
-        <v>0.09935636916345927</v>
+        <v>0.1022584114130189</v>
       </c>
       <c r="Q12">
-        <v>0.21765907</v>
+        <v>0.6155085167183334</v>
       </c>
       <c r="R12">
-        <v>1.95893163</v>
+        <v>5.539576650465001</v>
       </c>
       <c r="S12">
-        <v>0.02290679214083497</v>
+        <v>0.02935679931476635</v>
       </c>
       <c r="T12">
-        <v>0.02290679214083497</v>
+        <v>0.02935679931476635</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H13">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I13">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J13">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1179043333333333</v>
+        <v>0.223045</v>
       </c>
       <c r="N13">
-        <v>0.353713</v>
+        <v>0.669135</v>
       </c>
       <c r="O13">
-        <v>0.02734760340736914</v>
+        <v>0.02899406222612314</v>
       </c>
       <c r="P13">
-        <v>0.02734760340736914</v>
+        <v>0.02899406222612314</v>
       </c>
       <c r="Q13">
-        <v>0.059910139375</v>
+        <v>0.174519552845</v>
       </c>
       <c r="R13">
-        <v>0.539191254375</v>
+        <v>1.570675975605</v>
       </c>
       <c r="S13">
-        <v>0.006305039848748677</v>
+        <v>0.008323744270329808</v>
       </c>
       <c r="T13">
-        <v>0.006305039848748676</v>
+        <v>0.008323744270329808</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H14">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I14">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J14">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.073240333333333</v>
+        <v>5.991264999999999</v>
       </c>
       <c r="N14">
-        <v>9.219721</v>
+        <v>17.973795</v>
       </c>
       <c r="O14">
-        <v>0.71283010077264</v>
+        <v>0.7788164281790385</v>
       </c>
       <c r="P14">
-        <v>0.7128301007726399</v>
+        <v>0.7788164281790384</v>
       </c>
       <c r="Q14">
-        <v>0.1493441139983333</v>
+        <v>1.290031191446666</v>
       </c>
       <c r="R14">
-        <v>1.344097025985</v>
+        <v>11.61028072302</v>
       </c>
       <c r="S14">
-        <v>0.01571721581286267</v>
+        <v>0.06152829045973898</v>
       </c>
       <c r="T14">
-        <v>0.01571721581286267</v>
+        <v>0.06152829045973897</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H15">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I15">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J15">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6918203333333334</v>
+        <v>0.6918203333333333</v>
       </c>
       <c r="N15">
         <v>2.075461</v>
       </c>
       <c r="O15">
-        <v>0.1604659266565316</v>
+        <v>0.08993109818181944</v>
       </c>
       <c r="P15">
-        <v>0.1604659266565316</v>
+        <v>0.08993109818181944</v>
       </c>
       <c r="Q15">
-        <v>0.03361900909833333</v>
+        <v>0.1489618317462222</v>
       </c>
       <c r="R15">
-        <v>0.302571081885</v>
+        <v>1.340656485716</v>
       </c>
       <c r="S15">
-        <v>0.003538118826825646</v>
+        <v>0.007104763754446977</v>
       </c>
       <c r="T15">
-        <v>0.003538118826825647</v>
+        <v>0.007104763754446977</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H16">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I16">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J16">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4283573333333333</v>
+        <v>0.7866516666666667</v>
       </c>
       <c r="N16">
-        <v>1.285072</v>
+        <v>2.359955</v>
       </c>
       <c r="O16">
-        <v>0.09935636916345929</v>
+        <v>0.102258411413019</v>
       </c>
       <c r="P16">
-        <v>0.09935636916345927</v>
+        <v>0.1022584114130189</v>
       </c>
       <c r="Q16">
-        <v>0.02081602461333333</v>
+        <v>0.1693807879977778</v>
       </c>
       <c r="R16">
-        <v>0.18734422152</v>
+        <v>1.52442709198</v>
       </c>
       <c r="S16">
-        <v>0.002190712057237638</v>
+        <v>0.008078649873992294</v>
       </c>
       <c r="T16">
-        <v>0.002190712057237638</v>
+        <v>0.008078649873992294</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H17">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I17">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J17">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1179043333333333</v>
+        <v>0.223045</v>
       </c>
       <c r="N17">
-        <v>0.353713</v>
+        <v>0.669135</v>
       </c>
       <c r="O17">
-        <v>0.02734760340736914</v>
+        <v>0.02899406222612314</v>
       </c>
       <c r="P17">
-        <v>0.02734760340736914</v>
+        <v>0.02899406222612314</v>
       </c>
       <c r="Q17">
-        <v>0.005729561078333333</v>
+        <v>0.04802575200666667</v>
       </c>
       <c r="R17">
-        <v>0.051566049705</v>
+        <v>0.43223176806</v>
       </c>
       <c r="S17">
-        <v>0.0006029882636161217</v>
+        <v>0.002290597652681442</v>
       </c>
       <c r="T17">
-        <v>0.0006029882636161217</v>
+        <v>0.002290597652681442</v>
       </c>
     </row>
   </sheetData>
